--- a/data/trans_orig/MCS12_SP_R2-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/MCS12_SP_R2-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>328559</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>303623</v>
+        <v>302759</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>351982</v>
+        <v>352052</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5624645081860048</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5197774463966955</v>
+        <v>0.518297429505951</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6025640316215527</v>
+        <v>0.6026840840657206</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>573</v>
@@ -765,19 +765,19 @@
         <v>597239</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>567115</v>
+        <v>566880</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>624842</v>
+        <v>627163</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6475307309838247</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6148703309553673</v>
+        <v>0.6146148075782066</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6774583100481102</v>
+        <v>0.6799745830871438</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>898</v>
@@ -786,19 +786,19 @@
         <v>925798</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>888520</v>
+        <v>888738</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>964943</v>
+        <v>962443</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6145459697068776</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5898012714543021</v>
+        <v>0.5899458326845616</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6405306706411784</v>
+        <v>0.6388714905681624</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>255582</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>232159</v>
+        <v>232089</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>280518</v>
+        <v>281382</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4375354918139953</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3974359683784474</v>
+        <v>0.3973159159342794</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4802225536033047</v>
+        <v>0.481702570494049</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>312</v>
@@ -836,19 +836,19 @@
         <v>325094</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>297491</v>
+        <v>295170</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>355218</v>
+        <v>355453</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3524692690161752</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3225416899518898</v>
+        <v>0.3200254169128562</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3851296690446327</v>
+        <v>0.3853851924217935</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>561</v>
@@ -857,19 +857,19 @@
         <v>580676</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>541531</v>
+        <v>544031</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>617954</v>
+        <v>617736</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3854540302931224</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3594693293588216</v>
+        <v>0.3611285094318376</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4101987285456983</v>
+        <v>0.4100541673154389</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>464402</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>431683</v>
+        <v>434390</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>495628</v>
+        <v>499596</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4308417464786207</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.400487693035263</v>
+        <v>0.4029989794717828</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4598118531076679</v>
+        <v>0.4634926132568302</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>532</v>
@@ -982,19 +982,19 @@
         <v>545821</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>511728</v>
+        <v>514651</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>579144</v>
+        <v>581219</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5161242686383773</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4838859848781812</v>
+        <v>0.4866502671209404</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5476344108810673</v>
+        <v>0.5495960534121589</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>982</v>
@@ -1003,19 +1003,19 @@
         <v>1010223</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>961291</v>
+        <v>965529</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1059992</v>
+        <v>1055910</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4730765292670438</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4501624445605352</v>
+        <v>0.4521469898862663</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4963827853402237</v>
+        <v>0.4944714657205457</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>613492</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>582266</v>
+        <v>578298</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>646211</v>
+        <v>643504</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5691582535213794</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.540188146892332</v>
+        <v>0.5365073867431697</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5995123069647369</v>
+        <v>0.5970010205282169</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>496</v>
@@ -1053,19 +1053,19 @@
         <v>511717</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>478394</v>
+        <v>476319</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>545810</v>
+        <v>542887</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4838757313616227</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4523655891189323</v>
+        <v>0.450403946587841</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5161140151218185</v>
+        <v>0.5133497328790596</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1101</v>
@@ -1074,19 +1074,19 @@
         <v>1125209</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1075440</v>
+        <v>1079522</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1174141</v>
+        <v>1169903</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5269234707329562</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5036172146597763</v>
+        <v>0.5055285342794542</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5498375554394648</v>
+        <v>0.5478530101137338</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>394571</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>363363</v>
+        <v>362424</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>429245</v>
+        <v>425686</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3517951820074582</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3239702316573471</v>
+        <v>0.3231332614411044</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3827099528632388</v>
+        <v>0.3795365510458579</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>456</v>
@@ -1199,19 +1199,19 @@
         <v>464674</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>435644</v>
+        <v>431232</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>497225</v>
+        <v>496394</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4675073818006036</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4383003497807126</v>
+        <v>0.4338615753602746</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5002570441893872</v>
+        <v>0.4994207098202454</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>838</v>
@@ -1220,19 +1220,19 @@
         <v>859246</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>814494</v>
+        <v>812435</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>908050</v>
+        <v>906249</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4061601530393236</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3850062978617437</v>
+        <v>0.3840329687103402</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4292297758689299</v>
+        <v>0.4283783463366634</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>727023</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>692349</v>
+        <v>695908</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>758231</v>
+        <v>759170</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6482048179925418</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6172900471367612</v>
+        <v>0.6204634489541421</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6760297683426529</v>
+        <v>0.6768667385588957</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>526</v>
@@ -1270,19 +1270,19 @@
         <v>529266</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>496715</v>
+        <v>497546</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>558296</v>
+        <v>562708</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5324926181993964</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4997429558106128</v>
+        <v>0.5005792901797546</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5616996502192874</v>
+        <v>0.5661384246397252</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1247</v>
@@ -1291,19 +1291,19 @@
         <v>1256288</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1207484</v>
+        <v>1209285</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1301040</v>
+        <v>1303099</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5938398469606764</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.57077022413107</v>
+        <v>0.5716216536633366</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6149937021382563</v>
+        <v>0.6159670312896599</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>201332</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>180108</v>
+        <v>179677</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>222386</v>
+        <v>222699</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.450205705387134</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4027470687780546</v>
+        <v>0.4017817773522993</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4972851891499067</v>
+        <v>0.4979842836420996</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>177</v>
@@ -1416,19 +1416,19 @@
         <v>179256</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>160373</v>
+        <v>162160</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>196872</v>
+        <v>198656</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5254330240911672</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4700843683395927</v>
+        <v>0.4753231901624393</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5770692917890875</v>
+        <v>0.5822997003924768</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>373</v>
@@ -1437,19 +1437,19 @@
         <v>380588</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>353481</v>
+        <v>353316</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>406602</v>
+        <v>409678</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4827599755936132</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4483757567118451</v>
+        <v>0.4481664209550303</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5157580289518648</v>
+        <v>0.5196593379019533</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>245868</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>224814</v>
+        <v>224501</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>267092</v>
+        <v>267523</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.549794294612866</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5027148108500933</v>
+        <v>0.5020157163579005</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5972529312219456</v>
+        <v>0.5982182226477012</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>162</v>
@@ -1487,19 +1487,19 @@
         <v>161902</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>144286</v>
+        <v>142502</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>180785</v>
+        <v>178998</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4745669759088327</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4229307082109124</v>
+        <v>0.4177002996075235</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5299156316604073</v>
+        <v>0.5246768098375608</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>402</v>
@@ -1508,19 +1508,19 @@
         <v>407770</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>381756</v>
+        <v>378680</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>434877</v>
+        <v>435042</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5172400244063868</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4842419710481351</v>
+        <v>0.4803406620980468</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5516242432881548</v>
+        <v>0.5518335790449698</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>1388864</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1333082</v>
+        <v>1331116</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1443800</v>
+        <v>1444650</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4298784253291826</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4126131144824896</v>
+        <v>0.4120044471033475</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4468820678751304</v>
+        <v>0.4471452035723876</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1738</v>
@@ -1633,19 +1633,19 @@
         <v>1786990</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1730461</v>
+        <v>1731416</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1846868</v>
+        <v>1846005</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5390668783260048</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5220142856318097</v>
+        <v>0.5223023674557361</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5571297201757418</v>
+        <v>0.5568693665572019</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3091</v>
@@ -1654,19 +1654,19 @@
         <v>3175854</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3101364</v>
+        <v>3089518</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3256217</v>
+        <v>3259525</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4851744046510657</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4737945934269679</v>
+        <v>0.4719849361712666</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.497451510347012</v>
+        <v>0.4979568973830566</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>1841965</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1787029</v>
+        <v>1786179</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1897747</v>
+        <v>1899713</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5701215746708174</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5531179321248696</v>
+        <v>0.5528547964276125</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5873868855175104</v>
+        <v>0.5879955528966525</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1496</v>
@@ -1704,19 +1704,19 @@
         <v>1527979</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1468101</v>
+        <v>1468964</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1584508</v>
+        <v>1583553</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4609331216739952</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4428702798242583</v>
+        <v>0.4431306334427981</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4779857143681903</v>
+        <v>0.4776976325442639</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3311</v>
@@ -1725,19 +1725,19 @@
         <v>3369944</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3289581</v>
+        <v>3286273</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3444434</v>
+        <v>3456280</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5148255953489344</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5025484896529879</v>
+        <v>0.5020431026169434</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5262054065730317</v>
+        <v>0.5280150638287334</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>527826</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>494373</v>
+        <v>493824</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>562414</v>
+        <v>561939</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5056118001548645</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4735666776240396</v>
+        <v>0.4730410756032114</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5387441621538051</v>
+        <v>0.5382887999996651</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>670</v>
@@ -2090,19 +2090,19 @@
         <v>730559</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>694184</v>
+        <v>698930</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>762580</v>
+        <v>764818</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6523266333163186</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6198467570734868</v>
+        <v>0.6240843743388523</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6809191602760863</v>
+        <v>0.6829168801057361</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1161</v>
@@ -2111,19 +2111,19 @@
         <v>1258385</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1209473</v>
+        <v>1215605</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1305734</v>
+        <v>1304443</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5815454846238219</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5589414682773685</v>
+        <v>0.5617753634085536</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6034272379155819</v>
+        <v>0.6028308728546038</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>516109</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>481521</v>
+        <v>481996</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>549562</v>
+        <v>550111</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4943881998451355</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4612558378461948</v>
+        <v>0.461711200000335</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5264333223759603</v>
+        <v>0.5269589243967886</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>361</v>
@@ -2161,19 +2161,19 @@
         <v>389369</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>357348</v>
+        <v>355110</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>425744</v>
+        <v>420998</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3476733666836814</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3190808397239137</v>
+        <v>0.3170831198942639</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3801532429265132</v>
+        <v>0.3759156256611477</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>848</v>
@@ -2182,19 +2182,19 @@
         <v>905478</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>858129</v>
+        <v>859420</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>954390</v>
+        <v>948258</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4184545153761781</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3965727620844181</v>
+        <v>0.3971691271453963</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4410585317226315</v>
+        <v>0.4382246365914466</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>489466</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>457128</v>
+        <v>457286</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>525067</v>
+        <v>521252</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5009508384026692</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4678549919775722</v>
+        <v>0.4680162926748752</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.53738763517178</v>
+        <v>0.5334830545017962</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>641</v>
@@ -2307,19 +2307,19 @@
         <v>687014</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>656842</v>
+        <v>656096</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>720908</v>
+        <v>719725</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6278332796357543</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6002600928507642</v>
+        <v>0.5995782908640908</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.658807591862102</v>
+        <v>0.6577260916242528</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1102</v>
@@ -2328,19 +2328,19 @@
         <v>1176480</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1128807</v>
+        <v>1129876</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1218979</v>
+        <v>1223578</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5679813562525922</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5449659087431042</v>
+        <v>0.5454819811208188</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5884991411097973</v>
+        <v>0.5907193589856581</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>487607</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>452006</v>
+        <v>455821</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>519945</v>
+        <v>519787</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4990491615973308</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.46261236482822</v>
+        <v>0.4665169454982037</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5321450080224281</v>
+        <v>0.5319837073251249</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>379</v>
@@ -2378,19 +2378,19 @@
         <v>407248</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>373354</v>
+        <v>374537</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>437420</v>
+        <v>438166</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3721667203642458</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3411924081378979</v>
+        <v>0.3422739083757474</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3997399071492356</v>
+        <v>0.4004217091359094</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>842</v>
@@ -2399,19 +2399,19 @@
         <v>894855</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>852356</v>
+        <v>847757</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>942528</v>
+        <v>941459</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4320186437474078</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4115008588902028</v>
+        <v>0.4092806410143419</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4550340912568963</v>
+        <v>0.4545180188791811</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>424252</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>395186</v>
+        <v>394580</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>455089</v>
+        <v>455235</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4793190190372308</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4464800808091306</v>
+        <v>0.4457948301142713</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.514158111793207</v>
+        <v>0.5143228093658434</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>479</v>
@@ -2524,19 +2524,19 @@
         <v>513518</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>482740</v>
+        <v>481719</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>544732</v>
+        <v>542610</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5863446330925728</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5512013204883236</v>
+        <v>0.550035514873654</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6219849967295353</v>
+        <v>0.6195620654976179</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>882</v>
@@ -2545,19 +2545,19 @@
         <v>937771</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>895735</v>
+        <v>895406</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>984810</v>
+        <v>984061</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5325486184922328</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5086768528611993</v>
+        <v>0.5084903336298867</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5592614973519277</v>
+        <v>0.5588364897313646</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>460863</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>430026</v>
+        <v>429880</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>489929</v>
+        <v>490535</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5206809809627692</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4858418882067929</v>
+        <v>0.4856771906341565</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5535199191908694</v>
+        <v>0.5542051698857287</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>342</v>
@@ -2595,19 +2595,19 @@
         <v>362278</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>331064</v>
+        <v>333186</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>393056</v>
+        <v>394077</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4136553669074272</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3780150032704647</v>
+        <v>0.380437934502382</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4487986795116763</v>
+        <v>0.4499644851263455</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>769</v>
@@ -2616,19 +2616,19 @@
         <v>823140</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>776101</v>
+        <v>776850</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>865176</v>
+        <v>865505</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4674513815077672</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4407385026480725</v>
+        <v>0.4411635102686355</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4913231471388009</v>
+        <v>0.4915096663701136</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>230601</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>207432</v>
+        <v>204600</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>254400</v>
+        <v>253048</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4584305574167847</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4123700884805648</v>
+        <v>0.4067402418512534</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.505742416353761</v>
+        <v>0.5030541116721551</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>240</v>
@@ -2741,19 +2741,19 @@
         <v>261899</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>240292</v>
+        <v>240065</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>285516</v>
+        <v>282471</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5784803833054675</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5307547605632288</v>
+        <v>0.5302534754091405</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6306449425306883</v>
+        <v>0.6239200629900485</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>448</v>
@@ -2762,19 +2762,19 @@
         <v>492499</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>459865</v>
+        <v>457344</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>523119</v>
+        <v>524277</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5152972684932657</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4811519713236301</v>
+        <v>0.4785143624050546</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5473344710747605</v>
+        <v>0.5485458715825218</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>272422</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>248623</v>
+        <v>249975</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>295591</v>
+        <v>298423</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5415694425832153</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4942575836462388</v>
+        <v>0.4969458883278449</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.587629911519435</v>
+        <v>0.5932597581487464</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>172</v>
@@ -2812,19 +2812,19 @@
         <v>190837</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>167220</v>
+        <v>170265</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>212444</v>
+        <v>212671</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4215196166945326</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3693550574693117</v>
+        <v>0.3760799370099514</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4692452394367712</v>
+        <v>0.4697465245908594</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>425</v>
@@ -2833,19 +2833,19 @@
         <v>463259</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>432639</v>
+        <v>431481</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>495893</v>
+        <v>498414</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4847027315067343</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4526655289252392</v>
+        <v>0.4514541284174782</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5188480286763697</v>
+        <v>0.5214856375949454</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>1672144</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1616278</v>
+        <v>1615185</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1729987</v>
+        <v>1737032</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4904879310250542</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4741006408439469</v>
+        <v>0.4737800061571278</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5074547683410703</v>
+        <v>0.5095211628329221</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2030</v>
@@ -2958,19 +2958,19 @@
         <v>2192990</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2129510</v>
+        <v>2134033</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2247626</v>
+        <v>2254322</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6190127760229893</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6010941748626891</v>
+        <v>0.6023709995180435</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6344347372568219</v>
+        <v>0.6363247102234818</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3593</v>
@@ -2979,19 +2979,19 @@
         <v>3865135</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3775368</v>
+        <v>3773128</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3945184</v>
+        <v>3951701</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.555985122849763</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5430724636125346</v>
+        <v>0.5427502950734685</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5674999457002657</v>
+        <v>0.5684373316056139</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>1737001</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1679158</v>
+        <v>1672113</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1792867</v>
+        <v>1793960</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5095120689749457</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4925452316589297</v>
+        <v>0.4904788371670779</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5258993591560531</v>
+        <v>0.5262199938428725</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1254</v>
@@ -3029,19 +3029,19 @@
         <v>1349732</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1295096</v>
+        <v>1288400</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1413212</v>
+        <v>1408689</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3809872239770106</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3655652627431781</v>
+        <v>0.3636752897765182</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3989058251373109</v>
+        <v>0.3976290004819565</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2884</v>
@@ -3050,19 +3050,19 @@
         <v>3086732</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3006683</v>
+        <v>3000166</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3176499</v>
+        <v>3178739</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4440148771502371</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4325000542997343</v>
+        <v>0.4315626683943861</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4569275363874654</v>
+        <v>0.4572497049265314</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>694405</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>659345</v>
+        <v>658776</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>726518</v>
+        <v>726277</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6156090454117845</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5845270381657224</v>
+        <v>0.5840224556723542</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6440781634147796</v>
+        <v>0.6438640201403082</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>780</v>
@@ -3415,19 +3415,19 @@
         <v>823750</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>788615</v>
+        <v>789281</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>856371</v>
+        <v>863404</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.653997952141588</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6261029751251059</v>
+        <v>0.6266317855218577</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.679896547907927</v>
+        <v>0.6854801309896619</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1442</v>
@@ -3436,19 +3436,19 @@
         <v>1518155</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1472182</v>
+        <v>1466248</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1564771</v>
+        <v>1565835</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6358611862667687</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6166057578540191</v>
+        <v>0.6141202413416323</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6553856188109672</v>
+        <v>0.655831186037518</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>433592</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>401479</v>
+        <v>401720</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>468652</v>
+        <v>469221</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3843909545882154</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3559218365852202</v>
+        <v>0.3561359798596919</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4154729618342775</v>
+        <v>0.4159775443276458</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>408</v>
@@ -3486,19 +3486,19 @@
         <v>435811</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>403190</v>
+        <v>396157</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>470946</v>
+        <v>470280</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.346002047858412</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3201034520920733</v>
+        <v>0.3145198690103382</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3738970248748943</v>
+        <v>0.3733682144781423</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>812</v>
@@ -3507,19 +3507,19 @@
         <v>869403</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>822787</v>
+        <v>821723</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>915376</v>
+        <v>921310</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3641388137332314</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3446143811890328</v>
+        <v>0.3441688139624821</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.383394242145981</v>
+        <v>0.3858797586583676</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>439360</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>410255</v>
+        <v>410631</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>471030</v>
+        <v>469797</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4834371853290165</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4514127224708769</v>
+        <v>0.4518266492710534</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5182847592022655</v>
+        <v>0.5169282823002721</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>490</v>
@@ -3632,19 +3632,19 @@
         <v>516467</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>485426</v>
+        <v>486344</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>549016</v>
+        <v>551403</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5131446667041568</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4823026635006494</v>
+        <v>0.4832148744747154</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5454840186664455</v>
+        <v>0.5478558112775828</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>921</v>
@@ -3653,19 +3653,19 @@
         <v>955827</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>911676</v>
+        <v>913108</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>999988</v>
+        <v>1001096</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4990482357913225</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4759964653096366</v>
+        <v>0.4767442765339946</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5221052611923911</v>
+        <v>0.5226838104446194</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>469465</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>437795</v>
+        <v>439028</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>498570</v>
+        <v>498194</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5165628146709834</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4817152407977346</v>
+        <v>0.483071717699728</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5485872775291231</v>
+        <v>0.5481733507289467</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>461</v>
@@ -3703,19 +3703,19 @@
         <v>490008</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>457459</v>
+        <v>455072</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>521049</v>
+        <v>520131</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4868553332958432</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4545159813335546</v>
+        <v>0.4521441887224172</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5176973364993506</v>
+        <v>0.5167851255252847</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>911</v>
@@ -3724,19 +3724,19 @@
         <v>959473</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>915312</v>
+        <v>914204</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1003624</v>
+        <v>1002192</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5009517642086775</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4778947388076089</v>
+        <v>0.4773161895553805</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5240035346903638</v>
+        <v>0.5232557234660054</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>316833</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>289439</v>
+        <v>288789</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>347870</v>
+        <v>345760</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3846188757711356</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.351363549300988</v>
+        <v>0.3505751023440892</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4222952607692981</v>
+        <v>0.4197338465913411</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>350</v>
@@ -3849,19 +3849,19 @@
         <v>378495</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>349087</v>
+        <v>352229</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>405838</v>
+        <v>406607</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4908764864900916</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.452736469533387</v>
+        <v>0.4568115384520322</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5263390814124354</v>
+        <v>0.5273351938153954</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>649</v>
@@ -3870,19 +3870,19 @@
         <v>695328</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>651954</v>
+        <v>654922</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>736259</v>
+        <v>738250</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4359920452118402</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4087954251569819</v>
+        <v>0.4106562375521122</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4616568833472964</v>
+        <v>0.4629052608367631</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>506926</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>475889</v>
+        <v>477999</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>534320</v>
+        <v>534970</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6153811242288644</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.577704739230702</v>
+        <v>0.5802661534086589</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.648636450699012</v>
+        <v>0.6494248976559108</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>378</v>
@@ -3920,19 +3920,19 @@
         <v>392564</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>365221</v>
+        <v>364452</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>421972</v>
+        <v>418830</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5091235135099084</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4736609185875645</v>
+        <v>0.4726648061846047</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5472635304666129</v>
+        <v>0.543188461547968</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>866</v>
@@ -3941,19 +3941,19 @@
         <v>899490</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>858559</v>
+        <v>856568</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>942864</v>
+        <v>939896</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5640079547881598</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5383431166527036</v>
+        <v>0.5370947391632369</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5912045748430184</v>
+        <v>0.5893437624478877</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>171859</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>148721</v>
+        <v>149999</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>192618</v>
+        <v>192544</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3391723490339551</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2935083658348189</v>
+        <v>0.296030032625047</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3801407107163156</v>
+        <v>0.37999451018567</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>200</v>
@@ -4066,19 +4066,19 @@
         <v>215176</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>191256</v>
+        <v>192681</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>237213</v>
+        <v>238884</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4394051437584147</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3905595981105833</v>
+        <v>0.3934680270192479</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4844071773803614</v>
+        <v>0.4878197151432123</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>358</v>
@@ -4087,19 +4087,19 @@
         <v>387034</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>349886</v>
+        <v>357975</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>416273</v>
+        <v>418852</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3884335196418679</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3511505592383783</v>
+        <v>0.3592691788821347</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4177773415232553</v>
+        <v>0.4203660849265494</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>334842</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>314083</v>
+        <v>314157</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>357980</v>
+        <v>356702</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6608276509660449</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6198592892836846</v>
+        <v>0.62000548981433</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7064916341651812</v>
+        <v>0.703969967374953</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>255</v>
@@ -4137,19 +4137,19 @@
         <v>274522</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>252485</v>
+        <v>250814</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>298442</v>
+        <v>297017</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5605948562415853</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5155928226196386</v>
+        <v>0.5121802848567877</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6094404018894166</v>
+        <v>0.6065319729807521</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>568</v>
@@ -4158,19 +4158,19 @@
         <v>609364</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>580125</v>
+        <v>577546</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>646512</v>
+        <v>638423</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6115664803581321</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5822226584767447</v>
+        <v>0.5796339150734509</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6488494407616218</v>
+        <v>0.6407308211178654</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>1622457</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1565662</v>
+        <v>1561652</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1683267</v>
+        <v>1681177</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4818299125594008</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4649632373377131</v>
+        <v>0.4637722554070022</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4998888192084406</v>
+        <v>0.4992683670295106</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1820</v>
@@ -4283,19 +4283,19 @@
         <v>1933888</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1875807</v>
+        <v>1876048</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1999043</v>
+        <v>1994720</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5483418421607575</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5318734993567676</v>
+        <v>0.5319419163801992</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5668162881551536</v>
+        <v>0.56559051986441</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3370</v>
@@ -4304,19 +4304,19 @@
         <v>3556345</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3470877</v>
+        <v>3472694</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3638912</v>
+        <v>3642126</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.515855329786104</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5034580269533449</v>
+        <v>0.5037215609593806</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5278318392069962</v>
+        <v>0.5282979483981982</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>1744825</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1684015</v>
+        <v>1686105</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1801620</v>
+        <v>1805630</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5181700874405991</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5001111807915595</v>
+        <v>0.5007316329704894</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5350367626622869</v>
+        <v>0.5362277445929978</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1502</v>
@@ -4354,19 +4354,19 @@
         <v>1592904</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1527749</v>
+        <v>1532072</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1650985</v>
+        <v>1650744</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4516581578392425</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4331837118448463</v>
+        <v>0.4344094801355898</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4681265006432324</v>
+        <v>0.4680580836198008</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3157</v>
@@ -4375,19 +4375,19 @@
         <v>3337730</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3255163</v>
+        <v>3251949</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3423198</v>
+        <v>3421381</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4841446702138959</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4721681607930039</v>
+        <v>0.4717020516018019</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4965419730466551</v>
+        <v>0.4962784390406195</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>251711</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>224966</v>
+        <v>226579</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>276084</v>
+        <v>276976</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5088569716386416</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4547905364497448</v>
+        <v>0.45805113961401</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5581291348887961</v>
+        <v>0.5599336669351992</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>555</v>
@@ -4740,19 +4740,19 @@
         <v>395811</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>373094</v>
+        <v>375301</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>416605</v>
+        <v>420273</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6394297143491582</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6027302166837291</v>
+        <v>0.6062964592510601</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6730228457682659</v>
+        <v>0.6789489575270974</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>805</v>
@@ -4761,19 +4761,19 @@
         <v>647521</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>614911</v>
+        <v>611790</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>683631</v>
+        <v>680255</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5814329399341291</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5521511118353273</v>
+        <v>0.5493491685219469</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6138578684929564</v>
+        <v>0.6108260144454368</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>242948</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>218575</v>
+        <v>217683</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>269693</v>
+        <v>268080</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4911430283613584</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4418708651112039</v>
+        <v>0.4400663330648008</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5452094635502552</v>
+        <v>0.5419488603859899</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>298</v>
@@ -4811,19 +4811,19 @@
         <v>223195</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>202401</v>
+        <v>198733</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>245912</v>
+        <v>243705</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3605702856508419</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3269771542317342</v>
+        <v>0.3210510424729029</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3972697833162711</v>
+        <v>0.3937035407489402</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>499</v>
@@ -4832,19 +4832,19 @@
         <v>466143</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>430033</v>
+        <v>433409</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>498753</v>
+        <v>501874</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4185670600658709</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3861421315070434</v>
+        <v>0.3891739855545632</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4478488881646728</v>
+        <v>0.450650831478053</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>381563</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>351042</v>
+        <v>349351</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>414870</v>
+        <v>413277</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3994528407076657</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3675008463936444</v>
+        <v>0.3657301379042139</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4343218023254849</v>
+        <v>0.4326542624548403</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>838</v>
@@ -4957,19 +4957,19 @@
         <v>544423</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>514383</v>
+        <v>516801</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>573129</v>
+        <v>573592</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4901045235971864</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4630617628155181</v>
+        <v>0.4652387046706268</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5159470062360524</v>
+        <v>0.5163638084937042</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1243</v>
@@ -4978,19 +4978,19 @@
         <v>925985</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>878418</v>
+        <v>881343</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>971474</v>
+        <v>970244</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4481926611360086</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.425169273847694</v>
+        <v>0.4265848118202192</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4702098726834757</v>
+        <v>0.4696145482873342</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>573651</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>540344</v>
+        <v>541937</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>604172</v>
+        <v>605863</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6005471592923343</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5656781976745167</v>
+        <v>0.5673457375451598</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6324991536063558</v>
+        <v>0.6342698620957862</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>761</v>
@@ -5028,19 +5028,19 @@
         <v>566407</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>537701</v>
+        <v>537238</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>596447</v>
+        <v>594029</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5098954764028136</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4840529937639477</v>
+        <v>0.4836361915062958</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.536938237184482</v>
+        <v>0.5347612953293731</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1261</v>
@@ -5049,19 +5049,19 @@
         <v>1140058</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1094569</v>
+        <v>1095799</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1187625</v>
+        <v>1184700</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5518073388639914</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5297901273165243</v>
+        <v>0.5303854517126658</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5748307261523057</v>
+        <v>0.5734151881797808</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>377913</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>345894</v>
+        <v>348263</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>411933</v>
+        <v>411251</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.3616582854814794</v>
+        <v>0.3616582854814793</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3310161170906772</v>
+        <v>0.3332840297054624</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3942148504902476</v>
+        <v>0.3935627815500523</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>675</v>
@@ -5174,19 +5174,19 @@
         <v>446597</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>421439</v>
+        <v>418022</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>477741</v>
+        <v>475000</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4271555427223536</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4030926426486498</v>
+        <v>0.399824443339267</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.45694401873527</v>
+        <v>0.4543218930255763</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1078</v>
@@ -5195,19 +5195,19 @@
         <v>824510</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>776893</v>
+        <v>781933</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>864232</v>
+        <v>866761</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3944158347459982</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3716374711544085</v>
+        <v>0.3740484496329463</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4134172491941444</v>
+        <v>0.4146272920623132</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>667032</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>633012</v>
+        <v>633694</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>699051</v>
+        <v>696682</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.6383417145185206</v>
+        <v>0.6383417145185205</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.605785149509752</v>
+        <v>0.6064372184499476</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6689838829093228</v>
+        <v>0.6667159702945374</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>837</v>
@@ -5245,19 +5245,19 @@
         <v>598917</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>567773</v>
+        <v>570514</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>624075</v>
+        <v>627492</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5728444572776465</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5430559812647301</v>
+        <v>0.5456781069744234</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.59690735735135</v>
+        <v>0.600175556660733</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1461</v>
@@ -5266,19 +5266,19 @@
         <v>1265949</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1226227</v>
+        <v>1223698</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1313566</v>
+        <v>1308526</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6055841652540018</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5865827508058555</v>
+        <v>0.5853727079376865</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6283625288455912</v>
+        <v>0.6259515503670537</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>439377</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>407321</v>
+        <v>404028</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>473892</v>
+        <v>476183</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4530170377043207</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4199665763174509</v>
+        <v>0.4165705957850308</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4886038549522767</v>
+        <v>0.4909660383233676</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>741</v>
@@ -5391,19 +5391,19 @@
         <v>484241</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>458026</v>
+        <v>454960</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>515126</v>
+        <v>510047</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.5360699402733194</v>
+        <v>0.5360699402733196</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.507049483804522</v>
+        <v>0.5036547343856299</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5702603659574366</v>
+        <v>0.5646378965717169</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1187</v>
@@ -5412,19 +5412,19 @@
         <v>923618</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>880557</v>
+        <v>879617</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>968519</v>
+        <v>967742</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4930676635351572</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4700800973566324</v>
+        <v>0.4695779627670369</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5170380149998042</v>
+        <v>0.5166231217697644</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>530513</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>495998</v>
+        <v>493707</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>562569</v>
+        <v>565862</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5469829622956793</v>
+        <v>0.5469829622956792</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5113961450477233</v>
+        <v>0.5090339616766324</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5800334236825491</v>
+        <v>0.5834294042149692</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>572</v>
@@ -5462,19 +5462,19 @@
         <v>419076</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>388191</v>
+        <v>393270</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>445291</v>
+        <v>448357</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.4639300597266803</v>
+        <v>0.4639300597266804</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4297396340425635</v>
+        <v>0.4353621034282831</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4929505161954779</v>
+        <v>0.4963452656143701</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1067</v>
@@ -5483,19 +5483,19 @@
         <v>949589</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>904688</v>
+        <v>905465</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>992650</v>
+        <v>993590</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.5069323364648427</v>
+        <v>0.5069323364648428</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4829619850001956</v>
+        <v>0.4833768782302355</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5299199026433671</v>
+        <v>0.5304220372329631</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>1450563</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1387951</v>
+        <v>1385755</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1510659</v>
+        <v>1512994</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4186682766816768</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4005969365614164</v>
+        <v>0.3999629861703714</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4360135896216514</v>
+        <v>0.4366873478237753</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2809</v>
@@ -5608,19 +5608,19 @@
         <v>1871072</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1814774</v>
+        <v>1822400</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1926952</v>
+        <v>1926701</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5086276584747675</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4933239177144998</v>
+        <v>0.4953967224156575</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5238180768737158</v>
+        <v>0.5237498837664267</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4313</v>
@@ -5629,19 +5629,19 @@
         <v>3321634</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3227078</v>
+        <v>3237352</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3412117</v>
+        <v>3404908</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.464995208573868</v>
+        <v>0.4649952085738681</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4517582528112593</v>
+        <v>0.4531965357529689</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4776619442348864</v>
+        <v>0.4766527181101831</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>2014144</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1954048</v>
+        <v>1951713</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2076756</v>
+        <v>2078952</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5813317233183233</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5639864103783485</v>
+        <v>0.5633126521762247</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5994030634385836</v>
+        <v>0.6000370138296288</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2468</v>
@@ -5679,19 +5679,19 @@
         <v>1807595</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1751715</v>
+        <v>1751966</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1863893</v>
+        <v>1856267</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4913723415252325</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4761819231262838</v>
+        <v>0.4762501162335733</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5066760822855003</v>
+        <v>0.5046032775843424</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4288</v>
@@ -5700,19 +5700,19 @@
         <v>3821739</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3731256</v>
+        <v>3738465</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3916295</v>
+        <v>3906021</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.5350047914261319</v>
+        <v>0.535004791426132</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5223380557651136</v>
+        <v>0.5233472818898169</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5482417471887406</v>
+        <v>0.546803464247031</v>
       </c>
     </row>
     <row r="18">
